--- a/src/main/resources/templates/App Tasks Pending.xlsx
+++ b/src/main/resources/templates/App Tasks Pending.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7287074F-7CC0-43DB-8C7D-96A48FA1DFC6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDA1D32-C2F6-493E-A46E-08628A6E730E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>spring security</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Validator Class for Change Password</t>
+  </si>
+  <si>
+    <t>Delete User by writing a query</t>
   </si>
 </sst>
 </file>
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,6 +865,11 @@
         <v>50</v>
       </c>
     </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C31" r:id="rId1" xr:uid="{179D8E0B-E467-4328-8AA1-796CD177A6EE}"/>

--- a/src/main/resources/templates/App Tasks Pending.xlsx
+++ b/src/main/resources/templates/App Tasks Pending.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDA1D32-C2F6-493E-A46E-08628A6E730E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D383C5-FA35-4F59-8BD9-01DCD0FD9BF4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t>spring security</t>
   </si>
@@ -176,6 +176,18 @@
   </si>
   <si>
     <t>Delete User by writing a query</t>
+  </si>
+  <si>
+    <t>Role Services Mapping Screen</t>
+  </si>
+  <si>
+    <t>Use DTOs</t>
+  </si>
+  <si>
+    <t>Put Mapping</t>
+  </si>
+  <si>
+    <t>Student Add Ajax</t>
   </si>
 </sst>
 </file>
@@ -532,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,6 +773,9 @@
       <c r="A28" t="s">
         <v>31</v>
       </c>
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -834,6 +849,9 @@
       <c r="A39" t="s">
         <v>44</v>
       </c>
+      <c r="B39" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -868,6 +886,38 @@
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/templates/App Tasks Pending.xlsx
+++ b/src/main/resources/templates/App Tasks Pending.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D383C5-FA35-4F59-8BD9-01DCD0FD9BF4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AB1BF5-B3A4-4FDC-BC0A-53B22FF8CA8B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>spring security</t>
   </si>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,6 +781,9 @@
       <c r="A29" t="s">
         <v>32</v>
       </c>
+      <c r="B29" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -835,6 +838,9 @@
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
